--- a/datamares/OLR/OLR_datamares_promonitor.xlsx
+++ b/datamares/OLR/OLR_datamares_promonitor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\datamares\Working_Metadata\Batch_2_promonitor_2016-10-14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\domm-metadata\datamares\OLR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1910,9 +1910,6 @@
     <t>Processed data from promonitorDB that allows to calculate the Health Index for the rocky reefs of the Gulf of California based on Aburto-Oropeza et al. 2014</t>
   </si>
   <si>
-    <t>Invertebrates | Fish | Reefs | Health index | Scuba diving</t>
-  </si>
-  <si>
     <t>Scripps Institution of Oceanography | Center for Marine Biodiversity and Conservation</t>
   </si>
   <si>
@@ -1961,12 +1958,6 @@
     <t>Visual census of fish and invertebrates</t>
   </si>
   <si>
-    <t>Promonitor | Fish | Invertebrate | Underwater</t>
-  </si>
-  <si>
-    <t>Gulf of California | Revillagigedo | Islas Marias | Bahia Banderas | Mexico</t>
-  </si>
-  <si>
     <t>Riqueza específica, densidad y biomasa como indicadores de salud @ http://dx.doi.org/10.13022/M38G6Z</t>
   </si>
   <si>
@@ -2000,9 +1991,6 @@
     <t>2017-01-01</t>
   </si>
   <si>
-    <t xml:space="preserve">Aburto-Oropeza, Octavio </t>
-  </si>
-  <si>
     <t>Inquiries should be directed to Octavio Aburto-Oropeza (maburto@ucsd.edu)</t>
   </si>
   <si>
@@ -2025,6 +2013,18 @@
   </si>
   <si>
     <t>Jimenez-Esquivel, Victoria | Giron-Nava, Alfredo</t>
+  </si>
+  <si>
+    <t>Aburto-Oropeza, Octavio</t>
+  </si>
+  <si>
+    <t>California, Gulf of (Mexico) | Revillagigedo Islands (Mexico) | Tres Marías Islands (Mexico) | Bahía de Banderas (Mexico) | Mexico</t>
+  </si>
+  <si>
+    <t>Marine invertebrates | Fish | Reef | Biomass | Health index | Scuba diving</t>
+  </si>
+  <si>
+    <t>Fish | Marine invertebrates | Underwater</t>
   </si>
 </sst>
 </file>
@@ -3325,10 +3325,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="Q4" sqref="Q4"/>
+      <selection pane="bottomLeft" activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3364,7 +3364,7 @@
         <v>486</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>2</v>
@@ -3468,10 +3468,10 @@
         <v>485</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>403</v>
@@ -3489,67 +3489,67 @@
         <v>626</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>624</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>623</v>
       </c>
       <c r="N2" s="17" t="s">
+        <v>629</v>
+      </c>
+      <c r="O2" s="17" t="s">
         <v>630</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="P2" s="17" t="s">
         <v>631</v>
       </c>
-      <c r="P2" s="17" t="s">
-        <v>632</v>
-      </c>
       <c r="Q2" s="22" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="R2" s="26"/>
       <c r="S2" s="22" t="s">
         <v>627</v>
       </c>
       <c r="T2" s="23" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="U2" s="22" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="V2" s="22" t="s">
+        <v>633</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>665</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>656</v>
+      </c>
+      <c r="Y2" s="19" t="s">
         <v>634</v>
       </c>
-      <c r="W2" s="17" t="s">
-        <v>628</v>
-      </c>
-      <c r="X2" s="17" t="s">
-        <v>660</v>
-      </c>
-      <c r="Y2" s="19" t="s">
+      <c r="Z2" s="18" t="s">
         <v>635</v>
-      </c>
-      <c r="Z2" s="18" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="3" spans="1:34" s="18" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>485</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>403</v>
@@ -3564,13 +3564,13 @@
         <v>433</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="L3" s="17" t="s">
         <v>622</v>
@@ -3579,67 +3579,67 @@
         <v>625</v>
       </c>
       <c r="N3" s="17" t="s">
+        <v>638</v>
+      </c>
+      <c r="O3" s="17" t="s">
         <v>639</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="P3" s="17" t="s">
         <v>640</v>
-      </c>
-      <c r="P3" s="17" t="s">
-        <v>641</v>
       </c>
       <c r="Q3" s="22" t="s">
         <v>625</v>
       </c>
       <c r="R3" s="26" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="S3" s="22" t="s">
+        <v>641</v>
+      </c>
+      <c r="T3" s="23" t="s">
         <v>642</v>
       </c>
-      <c r="T3" s="23" t="s">
+      <c r="U3" s="22" t="s">
+        <v>658</v>
+      </c>
+      <c r="V3" s="22" t="s">
         <v>643</v>
       </c>
-      <c r="U3" s="22" t="s">
-        <v>662</v>
-      </c>
-      <c r="V3" s="22" t="s">
+      <c r="W3" s="17" t="s">
+        <v>666</v>
+      </c>
+      <c r="X3" s="17" t="s">
+        <v>664</v>
+      </c>
+      <c r="Y3" s="18" t="s">
+        <v>645</v>
+      </c>
+      <c r="Z3" s="19" t="s">
         <v>644</v>
       </c>
-      <c r="W3" s="17" t="s">
-        <v>645</v>
-      </c>
-      <c r="X3" s="17" t="s">
+      <c r="AA3" s="19" t="s">
         <v>646</v>
       </c>
-      <c r="Y3" s="18" t="s">
+      <c r="AB3" s="19" t="s">
+        <v>647</v>
+      </c>
+      <c r="AC3" s="19" t="s">
+        <v>634</v>
+      </c>
+      <c r="AD3" s="19" t="s">
+        <v>635</v>
+      </c>
+      <c r="AE3" s="19" t="s">
+        <v>649</v>
+      </c>
+      <c r="AF3" s="19" t="s">
         <v>648</v>
       </c>
-      <c r="Z3" s="19" t="s">
-        <v>647</v>
-      </c>
-      <c r="AA3" s="19" t="s">
-        <v>649</v>
-      </c>
-      <c r="AB3" s="19" t="s">
+      <c r="AG3" s="19" t="s">
+        <v>651</v>
+      </c>
+      <c r="AH3" s="19" t="s">
         <v>650</v>
-      </c>
-      <c r="AC3" s="19" t="s">
-        <v>635</v>
-      </c>
-      <c r="AD3" s="19" t="s">
-        <v>636</v>
-      </c>
-      <c r="AE3" s="19" t="s">
-        <v>652</v>
-      </c>
-      <c r="AF3" s="19" t="s">
-        <v>651</v>
-      </c>
-      <c r="AG3" s="19" t="s">
-        <v>654</v>
-      </c>
-      <c r="AH3" s="19" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">

--- a/datamares/OLR/OLR_datamares_promonitor.xlsx
+++ b/datamares/OLR/OLR_datamares_promonitor.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="21600" windowHeight="10545"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="21600" windowHeight="10545" tabRatio="454"/>
   </bookViews>
   <sheets>
     <sheet name="Item description" sheetId="9" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="664">
   <si>
     <t>text</t>
   </si>
@@ -1980,15 +1980,6 @@
   </si>
   <si>
     <t>Recovering fishery resources in the Gulf of California @ http://dx.doi.org/10.13022/M3D304</t>
-  </si>
-  <si>
-    <t>EMBARGO DATE</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>2017-01-01</t>
   </si>
   <si>
     <t>Inquiries should be directed to Octavio Aburto-Oropeza (maburto@ucsd.edu)</t>
@@ -3323,40 +3314,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="X3" sqref="X3"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="39.140625" style="24" customWidth="1"/>
-    <col min="18" max="18" width="39.140625" style="26" customWidth="1"/>
-    <col min="19" max="22" width="39.140625" style="24" customWidth="1"/>
-    <col min="23" max="24" width="42.85546875" style="3" customWidth="1"/>
-    <col min="25" max="25" width="47.85546875" style="3" customWidth="1"/>
-    <col min="26" max="26" width="49.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="34" width="35" customWidth="1"/>
+    <col min="3" max="3" width="21" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="39.140625" style="24" customWidth="1"/>
+    <col min="17" max="17" width="39.140625" style="26" customWidth="1"/>
+    <col min="18" max="21" width="39.140625" style="24" customWidth="1"/>
+    <col min="22" max="23" width="42.85546875" style="3" customWidth="1"/>
+    <col min="24" max="24" width="47.85546875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="49.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="33" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>338</v>
       </c>
@@ -3364,70 +3354,70 @@
         <v>486</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>652</v>
+        <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="15" t="s">
         <v>1</v>
       </c>
+      <c r="I1" s="16" t="s">
+        <v>284</v>
+      </c>
       <c r="J1" s="16" t="s">
-        <v>284</v>
+        <v>132</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>105</v>
+        <v>450</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>489</v>
+        <v>6</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="Q1" s="25" t="s">
         <v>352</v>
       </c>
+      <c r="R1" s="21" t="s">
+        <v>4</v>
+      </c>
       <c r="S1" s="21" t="s">
-        <v>4</v>
+        <v>354</v>
       </c>
       <c r="T1" s="21" t="s">
-        <v>354</v>
+        <v>507</v>
       </c>
       <c r="U1" s="21" t="s">
-        <v>507</v>
-      </c>
-      <c r="V1" s="21" t="s">
         <v>506</v>
       </c>
+      <c r="V1" s="16" t="s">
+        <v>460</v>
+      </c>
       <c r="W1" s="16" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="X1" s="16" t="s">
-        <v>455</v>
+        <v>483</v>
       </c>
       <c r="Y1" s="16" t="s">
         <v>483</v>
@@ -3456,11 +3446,8 @@
       <c r="AG1" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="AH1" s="16" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" s="18" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:33" s="18" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>621</v>
       </c>
@@ -3468,211 +3455,205 @@
         <v>485</v>
       </c>
       <c r="C2" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>626</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>660</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>624</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>629</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>630</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="22" t="s">
+        <v>627</v>
+      </c>
+      <c r="S2" s="23" t="s">
+        <v>652</v>
+      </c>
+      <c r="T2" s="22" t="s">
+        <v>655</v>
+      </c>
+      <c r="U2" s="22" t="s">
+        <v>633</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>662</v>
+      </c>
+      <c r="W2" s="17" t="s">
         <v>653</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>632</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>473</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>626</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>663</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>624</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>628</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>623</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>629</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>630</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>631</v>
-      </c>
-      <c r="Q2" s="22" t="s">
-        <v>660</v>
-      </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="22" t="s">
-        <v>627</v>
-      </c>
-      <c r="T2" s="23" t="s">
-        <v>655</v>
-      </c>
-      <c r="U2" s="22" t="s">
-        <v>658</v>
-      </c>
-      <c r="V2" s="22" t="s">
-        <v>633</v>
-      </c>
-      <c r="W2" s="17" t="s">
-        <v>665</v>
-      </c>
-      <c r="X2" s="17" t="s">
+      <c r="X2" s="19" t="s">
+        <v>634</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" s="18" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>656</v>
-      </c>
-      <c r="Y2" s="19" t="s">
-        <v>634</v>
-      </c>
-      <c r="Z2" s="18" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" s="18" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>659</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>485</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>636</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="I3" s="17" t="s">
         <v>654</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>636</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>473</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>637</v>
-      </c>
       <c r="J3" s="17" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>662</v>
+        <v>622</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="M3" s="17" t="s">
+        <v>638</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>639</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>640</v>
+      </c>
+      <c r="P3" s="22" t="s">
         <v>625</v>
       </c>
-      <c r="N3" s="17" t="s">
-        <v>638</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>639</v>
-      </c>
-      <c r="P3" s="17" t="s">
-        <v>640</v>
-      </c>
-      <c r="Q3" s="22" t="s">
-        <v>625</v>
-      </c>
-      <c r="R3" s="26" t="s">
+      <c r="Q3" s="26" t="s">
+        <v>658</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>641</v>
+      </c>
+      <c r="S3" s="23" t="s">
+        <v>642</v>
+      </c>
+      <c r="T3" s="22" t="s">
+        <v>655</v>
+      </c>
+      <c r="U3" s="22" t="s">
+        <v>643</v>
+      </c>
+      <c r="V3" s="17" t="s">
+        <v>663</v>
+      </c>
+      <c r="W3" s="17" t="s">
         <v>661</v>
       </c>
-      <c r="S3" s="22" t="s">
-        <v>641</v>
-      </c>
-      <c r="T3" s="23" t="s">
-        <v>642</v>
-      </c>
-      <c r="U3" s="22" t="s">
-        <v>658</v>
-      </c>
-      <c r="V3" s="22" t="s">
-        <v>643</v>
-      </c>
-      <c r="W3" s="17" t="s">
-        <v>666</v>
-      </c>
-      <c r="X3" s="17" t="s">
-        <v>664</v>
-      </c>
-      <c r="Y3" s="18" t="s">
+      <c r="X3" s="18" t="s">
         <v>645</v>
       </c>
+      <c r="Y3" s="19" t="s">
+        <v>644</v>
+      </c>
       <c r="Z3" s="19" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="AA3" s="19" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AB3" s="19" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="AC3" s="19" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AD3" s="19" t="s">
-        <v>635</v>
+        <v>649</v>
       </c>
       <c r="AE3" s="19" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AF3" s="19" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="AG3" s="19" t="s">
-        <v>651</v>
-      </c>
-      <c r="AH3" s="19" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="U4" s="22"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="K5" s="17"/>
-      <c r="U5" s="22"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="T4" s="22"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="J5" s="17"/>
+      <c r="T5" s="22"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="J6" s="17"/>
       <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="U6" s="22"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="L7" s="17"/>
-      <c r="U7" s="22"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="N8" s="20"/>
-      <c r="U8" s="22"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="K9" s="17"/>
-      <c r="U9" s="22"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="K10" s="17"/>
-      <c r="U10" s="22"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="J11" s="17"/>
-      <c r="U11" s="22"/>
+      <c r="T6" s="22"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="K7" s="17"/>
+      <c r="T7" s="22"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="M8" s="20"/>
+      <c r="T8" s="22"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="J9" s="17"/>
+      <c r="T9" s="22"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="J10" s="17"/>
+      <c r="T10" s="22"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="I11" s="17"/>
+      <c r="T11" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B10:B1048576 B1:B2 B4">
@@ -3796,7 +3777,7 @@
   </conditionalFormatting>
   <dataValidations xWindow="1495" yWindow="249" count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Please select a value from the drop-down list" prompt="Please select a header from the drop-down list" sqref="G1:H1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Please select a value from the drop-down list" prompt="Please select a header from the drop-down list" sqref="F1:G1"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3807,25 +3788,25 @@
           <x14:formula1>
             <xm:f>'Select-a-header values'!$A$1:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>I1</xm:sqref>
+          <xm:sqref>H1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$D$1:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>M1:N1</xm:sqref>
+          <xm:sqref>L1:M1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list">
           <x14:formula1>
             <xm:f>'CV values'!$B$2:$B$21</xm:f>
           </x14:formula1>
-          <xm:sqref>E2 E4:E1048576</xm:sqref>
+          <xm:sqref>D2 D4:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list">
           <x14:formula1>
             <xm:f>'CV values'!$C$2:$C$15</xm:f>
           </x14:formula1>
-          <xm:sqref>F2 F4:F1048576</xm:sqref>
+          <xm:sqref>E2 E4:E1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list">
           <x14:formula1>
@@ -3837,43 +3818,43 @@
           <x14:formula1>
             <xm:f>'CV values'!$D$2:$D$60</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:H2 G4:H1048576</xm:sqref>
+          <xm:sqref>F2:G2 F4:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Please select a value from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'[1]CV values'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>G3:H3</xm:sqref>
+          <xm:sqref>F3:G3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list">
           <x14:formula1>
             <xm:f>'[1]CV values'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B3 E3:F3</xm:sqref>
+          <xm:sqref>B3 D3:E3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$G$1:$G$13</xm:f>
           </x14:formula1>
-          <xm:sqref>W1:X1</xm:sqref>
+          <xm:sqref>V1:W1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$I$1:$I$12</xm:f>
           </x14:formula1>
-          <xm:sqref>Y1:AH1</xm:sqref>
+          <xm:sqref>X1:AG1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$E$1:$E$30</xm:f>
           </x14:formula1>
-          <xm:sqref>Q1:V1</xm:sqref>
+          <xm:sqref>P1:U1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$B$1:$B$233</xm:f>
           </x14:formula1>
-          <xm:sqref>J1:K1</xm:sqref>
+          <xm:sqref>I1:J1</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/datamares/OLR/OLR_datamares_promonitor.xlsx
+++ b/datamares/OLR/OLR_datamares_promonitor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="665">
   <si>
     <t>text</t>
   </si>
@@ -2016,6 +2016,9 @@
   </si>
   <si>
     <t>Fish | Marine invertebrates | Underwater</t>
+  </si>
+  <si>
+    <t>Aburto-Oropeza O, et al (2014) A framework to assess the health of rocky reefs linking geomorphology, community assemblage, and fish biomass. Ecological Indicators 52:353-361. http://dx.doi.org/10.1016/j.ecolind.2014.12.006.</t>
   </si>
 </sst>
 </file>
@@ -3314,12 +3317,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG11"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3338,15 +3341,15 @@
     <col min="13" max="13" width="23" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="39.140625" style="24" customWidth="1"/>
-    <col min="17" max="17" width="39.140625" style="26" customWidth="1"/>
-    <col min="18" max="21" width="39.140625" style="24" customWidth="1"/>
-    <col min="22" max="23" width="42.85546875" style="3" customWidth="1"/>
-    <col min="24" max="24" width="47.85546875" style="3" customWidth="1"/>
-    <col min="25" max="25" width="49.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="33" width="35" customWidth="1"/>
+    <col min="17" max="18" width="39.140625" style="26" customWidth="1"/>
+    <col min="19" max="22" width="39.140625" style="24" customWidth="1"/>
+    <col min="23" max="24" width="42.85546875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="47.85546875" style="3" customWidth="1"/>
+    <col min="26" max="26" width="49.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="34" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>338</v>
       </c>
@@ -3398,26 +3401,26 @@
       <c r="Q1" s="25" t="s">
         <v>352</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="S1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="T1" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="U1" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="V1" s="21" t="s">
         <v>506</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="W1" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>455</v>
-      </c>
-      <c r="X1" s="16" t="s">
-        <v>483</v>
       </c>
       <c r="Y1" s="16" t="s">
         <v>483</v>
@@ -3446,8 +3449,11 @@
       <c r="AG1" s="16" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" s="18" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH1" s="16" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" s="18" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>621</v>
       </c>
@@ -3497,32 +3503,35 @@
         <v>657</v>
       </c>
       <c r="Q2" s="26"/>
-      <c r="R2" s="22" t="s">
+      <c r="R2" s="26" t="s">
+        <v>664</v>
+      </c>
+      <c r="S2" s="22" t="s">
         <v>627</v>
       </c>
-      <c r="S2" s="23" t="s">
+      <c r="T2" s="23" t="s">
         <v>652</v>
       </c>
-      <c r="T2" s="22" t="s">
+      <c r="U2" s="22" t="s">
         <v>655</v>
       </c>
-      <c r="U2" s="22" t="s">
+      <c r="V2" s="22" t="s">
         <v>633</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="W2" s="17" t="s">
         <v>662</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="X2" s="17" t="s">
         <v>653</v>
       </c>
-      <c r="X2" s="19" t="s">
+      <c r="Y2" s="19" t="s">
         <v>634</v>
       </c>
-      <c r="Y2" s="18" t="s">
+      <c r="Z2" s="18" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="18" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" s="18" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>656</v>
       </c>
@@ -3574,86 +3583,87 @@
       <c r="Q3" s="26" t="s">
         <v>658</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="R3" s="26"/>
+      <c r="S3" s="22" t="s">
         <v>641</v>
       </c>
-      <c r="S3" s="23" t="s">
+      <c r="T3" s="23" t="s">
         <v>642</v>
       </c>
-      <c r="T3" s="22" t="s">
+      <c r="U3" s="22" t="s">
         <v>655</v>
       </c>
-      <c r="U3" s="22" t="s">
+      <c r="V3" s="22" t="s">
         <v>643</v>
       </c>
-      <c r="V3" s="17" t="s">
+      <c r="W3" s="17" t="s">
         <v>663</v>
       </c>
-      <c r="W3" s="17" t="s">
+      <c r="X3" s="17" t="s">
         <v>661</v>
       </c>
-      <c r="X3" s="18" t="s">
+      <c r="Y3" s="18" t="s">
         <v>645</v>
       </c>
-      <c r="Y3" s="19" t="s">
+      <c r="Z3" s="19" t="s">
         <v>644</v>
       </c>
-      <c r="Z3" s="19" t="s">
+      <c r="AA3" s="19" t="s">
         <v>646</v>
       </c>
-      <c r="AA3" s="19" t="s">
+      <c r="AB3" s="19" t="s">
         <v>647</v>
       </c>
-      <c r="AB3" s="19" t="s">
+      <c r="AC3" s="19" t="s">
         <v>634</v>
       </c>
-      <c r="AC3" s="19" t="s">
+      <c r="AD3" s="19" t="s">
         <v>635</v>
       </c>
-      <c r="AD3" s="19" t="s">
+      <c r="AE3" s="19" t="s">
         <v>649</v>
       </c>
-      <c r="AE3" s="19" t="s">
+      <c r="AF3" s="19" t="s">
         <v>648</v>
       </c>
-      <c r="AF3" s="19" t="s">
+      <c r="AG3" s="19" t="s">
         <v>651</v>
       </c>
-      <c r="AG3" s="19" t="s">
+      <c r="AH3" s="19" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="T4" s="22"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="U4" s="22"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="J5" s="17"/>
-      <c r="T5" s="22"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="U5" s="22"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
-      <c r="T6" s="22"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="U6" s="22"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="K7" s="17"/>
-      <c r="T7" s="22"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="U7" s="22"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="M8" s="20"/>
-      <c r="T8" s="22"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="U8" s="22"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="J9" s="17"/>
-      <c r="T9" s="22"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="U9" s="22"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="J10" s="17"/>
-      <c r="T10" s="22"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="U10" s="22"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I11" s="17"/>
-      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B10:B1048576 B1:B2 B4">
@@ -3836,19 +3846,19 @@
           <x14:formula1>
             <xm:f>'Select-a-header values'!$G$1:$G$13</xm:f>
           </x14:formula1>
-          <xm:sqref>V1:W1</xm:sqref>
+          <xm:sqref>W1:X1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$I$1:$I$12</xm:f>
           </x14:formula1>
-          <xm:sqref>X1:AG1</xm:sqref>
+          <xm:sqref>Y1:AH1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$E$1:$E$30</xm:f>
           </x14:formula1>
-          <xm:sqref>P1:U1</xm:sqref>
+          <xm:sqref>P1:V1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>

--- a/datamares/OLR/OLR_datamares_promonitor.xlsx
+++ b/datamares/OLR/OLR_datamares_promonitor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="664">
   <si>
     <t>text</t>
   </si>
@@ -1934,9 +1934,6 @@
     <t>Indice de Salud @ http://dx.doi.org/10.13022/M35P4B</t>
   </si>
   <si>
-    <t>p_gc_promonitor.xlsx</t>
-  </si>
-  <si>
     <t>Monitoring Program of Gulf of California and Pacific coast (ProMonitor)</t>
   </si>
   <si>
@@ -2018,7 +2015,7 @@
     <t>Fish | Marine invertebrates | Underwater</t>
   </si>
   <si>
-    <t>Aburto-Oropeza O, et al (2014) A framework to assess the health of rocky reefs linking geomorphology, community assemblage, and fish biomass. Ecological Indicators 52:353-361. http://dx.doi.org/10.1016/j.ecolind.2014.12.006.</t>
+    <t>Aburto-Oropeza O, et al (2014) A framework to assess the health of rocky reefs linking geomorphology, community assemblage, and fish biomass. Ecological Indicators 52:353-361. http://dx.doi.org/10.1016/j.ecolind.2014.12.006</t>
   </si>
 </sst>
 </file>
@@ -3319,10 +3316,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3479,7 +3476,7 @@
         <v>626</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>624</v>
@@ -3500,29 +3497,29 @@
         <v>631</v>
       </c>
       <c r="P2" s="22" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="Q2" s="26"/>
       <c r="R2" s="26" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="S2" s="22" t="s">
         <v>627</v>
       </c>
       <c r="T2" s="23" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="U2" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="V2" s="22" t="s">
         <v>633</v>
       </c>
       <c r="W2" s="17" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="X2" s="17" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="Y2" s="19" t="s">
         <v>634</v>
@@ -3533,20 +3530,14 @@
     </row>
     <row r="3" spans="1:34" s="18" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>636</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>473</v>
-      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="17" t="s">
         <v>358</v>
       </c>
@@ -3554,13 +3545,13 @@
         <v>433</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K3" s="17" t="s">
         <v>622</v>
@@ -3569,50 +3560,50 @@
         <v>625</v>
       </c>
       <c r="M3" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="N3" s="17" t="s">
         <v>638</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="O3" s="17" t="s">
         <v>639</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>640</v>
       </c>
       <c r="P3" s="22" t="s">
         <v>625</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="R3" s="26"/>
       <c r="S3" s="22" t="s">
+        <v>640</v>
+      </c>
+      <c r="T3" s="23" t="s">
         <v>641</v>
       </c>
-      <c r="T3" s="23" t="s">
+      <c r="U3" s="22" t="s">
+        <v>654</v>
+      </c>
+      <c r="V3" s="22" t="s">
         <v>642</v>
       </c>
-      <c r="U3" s="22" t="s">
-        <v>655</v>
-      </c>
-      <c r="V3" s="22" t="s">
+      <c r="W3" s="17" t="s">
+        <v>662</v>
+      </c>
+      <c r="X3" s="17" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y3" s="18" t="s">
+        <v>644</v>
+      </c>
+      <c r="Z3" s="19" t="s">
         <v>643</v>
       </c>
-      <c r="W3" s="17" t="s">
-        <v>663</v>
-      </c>
-      <c r="X3" s="17" t="s">
-        <v>661</v>
-      </c>
-      <c r="Y3" s="18" t="s">
+      <c r="AA3" s="19" t="s">
         <v>645</v>
       </c>
-      <c r="Z3" s="19" t="s">
-        <v>644</v>
-      </c>
-      <c r="AA3" s="19" t="s">
+      <c r="AB3" s="19" t="s">
         <v>646</v>
-      </c>
-      <c r="AB3" s="19" t="s">
-        <v>647</v>
       </c>
       <c r="AC3" s="19" t="s">
         <v>634</v>
@@ -3621,16 +3612,16 @@
         <v>635</v>
       </c>
       <c r="AE3" s="19" t="s">
+        <v>648</v>
+      </c>
+      <c r="AF3" s="19" t="s">
+        <v>647</v>
+      </c>
+      <c r="AG3" s="19" t="s">
+        <v>650</v>
+      </c>
+      <c r="AH3" s="19" t="s">
         <v>649</v>
-      </c>
-      <c r="AF3" s="19" t="s">
-        <v>648</v>
-      </c>
-      <c r="AG3" s="19" t="s">
-        <v>651</v>
-      </c>
-      <c r="AH3" s="19" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">

--- a/datamares/OLR/OLR_datamares_promonitor.xlsx
+++ b/datamares/OLR/OLR_datamares_promonitor.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\domm-metadata\datamares\OLR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\datamares\Final_metadata_promonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="21600" windowHeight="10545" tabRatio="454"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="21600" windowHeight="10545" tabRatio="454"/>
   </bookViews>
   <sheets>
     <sheet name="Item description" sheetId="9" r:id="rId1"/>
@@ -1973,9 +1973,6 @@
     <t>Snapper Habitat in Gulf of California Mangrove Forests @ http://dx.doi.org/10.13022/M3CC77</t>
   </si>
   <si>
-    <t>Recuperando los recursos pesqueros del Golfo de California @ http://dx.doi.org/10.13022/M3S88</t>
-  </si>
-  <si>
     <t>Recovering fishery resources in the Gulf of California @ http://dx.doi.org/10.13022/M3D304</t>
   </si>
   <si>
@@ -2016,6 +2013,9 @@
   </si>
   <si>
     <t>Aburto-Oropeza O, et al (2014) A framework to assess the health of rocky reefs linking geomorphology, community assemblage, and fish biomass. Ecological Indicators 52:353-361. http://dx.doi.org/10.1016/j.ecolind.2014.12.006</t>
+  </si>
+  <si>
+    <t>Recuperando los recursos pesqueros del Golfo de California @ http://dx.doi.org/10.13022/M3S889</t>
   </si>
 </sst>
 </file>
@@ -3316,10 +3316,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3476,7 +3476,7 @@
         <v>626</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>624</v>
@@ -3497,29 +3497,29 @@
         <v>631</v>
       </c>
       <c r="P2" s="22" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="Q2" s="26"/>
       <c r="R2" s="26" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="S2" s="22" t="s">
         <v>627</v>
       </c>
       <c r="T2" s="23" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U2" s="22" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="V2" s="22" t="s">
         <v>633</v>
       </c>
       <c r="W2" s="17" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="X2" s="17" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="Y2" s="19" t="s">
         <v>634</v>
@@ -3530,7 +3530,7 @@
     </row>
     <row r="3" spans="1:34" s="18" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>485</v>
@@ -3548,10 +3548,10 @@
         <v>636</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K3" s="17" t="s">
         <v>622</v>
@@ -3572,7 +3572,7 @@
         <v>625</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="R3" s="26"/>
       <c r="S3" s="22" t="s">
@@ -3582,16 +3582,16 @@
         <v>641</v>
       </c>
       <c r="U3" s="22" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="V3" s="22" t="s">
         <v>642</v>
       </c>
       <c r="W3" s="17" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="X3" s="17" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="Y3" s="18" t="s">
         <v>644</v>
@@ -3600,10 +3600,10 @@
         <v>643</v>
       </c>
       <c r="AA3" s="19" t="s">
+        <v>646</v>
+      </c>
+      <c r="AB3" s="19" t="s">
         <v>645</v>
-      </c>
-      <c r="AB3" s="19" t="s">
-        <v>646</v>
       </c>
       <c r="AC3" s="19" t="s">
         <v>634</v>
@@ -3618,10 +3618,10 @@
         <v>647</v>
       </c>
       <c r="AG3" s="19" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AH3" s="19" t="s">
-        <v>649</v>
+        <v>663</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">

--- a/datamares/OLR/OLR_datamares_promonitor.xlsx
+++ b/datamares/OLR/OLR_datamares_promonitor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\datamares\Final_metadata_promonitor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\domm-metadata\datamares\OLR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1895,9 +1895,6 @@
     <t>Scripps Institution of Oceanography</t>
   </si>
   <si>
-    <t>2016</t>
-  </si>
-  <si>
     <t>Giron-Nava, Alfredo</t>
   </si>
   <si>
@@ -1991,9 +1988,6 @@
     <t>002</t>
   </si>
   <si>
-    <t>Mascareñas Osorio, Ismael; Aburto-Oropeza, Octavio; Sanchez-Ortiz, Carlos (2016): Health Index of the reefs in the Gulf of California. In dataMares Project: Promonitor. UC San Diego Library Digital Collections.</t>
-  </si>
-  <si>
     <t>Mascareñas Osorio, Ismael; Aburto-Oropeza, Octavio; Sanchez Ortiz, Carlos (20##): Monitoring Program of Gulf of California and Pacific coast (ProMonitor). In dataMares Project: Promonitor. UC San Diego Library Digital Collections.</t>
   </si>
   <si>
@@ -2016,6 +2010,12 @@
   </si>
   <si>
     <t>Recuperando los recursos pesqueros del Golfo de California @ http://dx.doi.org/10.13022/M3S889</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>Mascareñas Osorio, Ismael; Aburto-Oropeza, Octavio; Sanchez-Ortiz, Carlos (2017): Health Index of the reefs in the Gulf of California. In dataMares Project: Promonitor. UC San Diego Library Digital Collections.</t>
   </si>
 </sst>
 </file>
@@ -3316,10 +3316,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="AB8" sqref="AB8"/>
+      <selection pane="bottomLeft" activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3458,7 +3458,7 @@
         <v>485</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>403</v>
@@ -3473,64 +3473,64 @@
         <v>433</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K2" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>662</v>
+      </c>
+      <c r="M2" s="17" t="s">
         <v>628</v>
       </c>
-      <c r="L2" s="17" t="s">
-        <v>623</v>
-      </c>
-      <c r="M2" s="17" t="s">
+      <c r="N2" s="17" t="s">
         <v>629</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="O2" s="17" t="s">
         <v>630</v>
       </c>
-      <c r="O2" s="17" t="s">
-        <v>631</v>
-      </c>
       <c r="P2" s="22" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="Q2" s="26"/>
       <c r="R2" s="26" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="S2" s="22" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="T2" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="U2" s="22" t="s">
+        <v>652</v>
+      </c>
+      <c r="V2" s="22" t="s">
+        <v>632</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="X2" s="17" t="s">
         <v>650</v>
       </c>
-      <c r="U2" s="22" t="s">
-        <v>653</v>
-      </c>
-      <c r="V2" s="22" t="s">
+      <c r="Y2" s="19" t="s">
         <v>633</v>
       </c>
-      <c r="W2" s="17" t="s">
-        <v>660</v>
-      </c>
-      <c r="X2" s="17" t="s">
-        <v>651</v>
-      </c>
-      <c r="Y2" s="19" t="s">
+      <c r="Z2" s="18" t="s">
         <v>634</v>
-      </c>
-      <c r="Z2" s="18" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:34" s="18" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>485</v>
@@ -3545,83 +3545,83 @@
         <v>433</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K3" s="17" t="s">
         <v>622</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="M3" s="17" t="s">
+        <v>636</v>
+      </c>
+      <c r="N3" s="17" t="s">
         <v>637</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="O3" s="17" t="s">
         <v>638</v>
       </c>
-      <c r="O3" s="17" t="s">
-        <v>639</v>
-      </c>
       <c r="P3" s="22" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="R3" s="26"/>
       <c r="S3" s="22" t="s">
+        <v>639</v>
+      </c>
+      <c r="T3" s="23" t="s">
         <v>640</v>
       </c>
-      <c r="T3" s="23" t="s">
+      <c r="U3" s="22" t="s">
+        <v>652</v>
+      </c>
+      <c r="V3" s="22" t="s">
         <v>641</v>
       </c>
-      <c r="U3" s="22" t="s">
-        <v>653</v>
-      </c>
-      <c r="V3" s="22" t="s">
+      <c r="W3" s="17" t="s">
+        <v>659</v>
+      </c>
+      <c r="X3" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="Y3" s="18" t="s">
+        <v>643</v>
+      </c>
+      <c r="Z3" s="19" t="s">
         <v>642</v>
       </c>
-      <c r="W3" s="17" t="s">
+      <c r="AA3" s="19" t="s">
+        <v>645</v>
+      </c>
+      <c r="AB3" s="19" t="s">
+        <v>644</v>
+      </c>
+      <c r="AC3" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="AD3" s="19" t="s">
+        <v>634</v>
+      </c>
+      <c r="AE3" s="19" t="s">
+        <v>647</v>
+      </c>
+      <c r="AF3" s="19" t="s">
+        <v>646</v>
+      </c>
+      <c r="AG3" s="19" t="s">
+        <v>648</v>
+      </c>
+      <c r="AH3" s="19" t="s">
         <v>661</v>
-      </c>
-      <c r="X3" s="17" t="s">
-        <v>659</v>
-      </c>
-      <c r="Y3" s="18" t="s">
-        <v>644</v>
-      </c>
-      <c r="Z3" s="19" t="s">
-        <v>643</v>
-      </c>
-      <c r="AA3" s="19" t="s">
-        <v>646</v>
-      </c>
-      <c r="AB3" s="19" t="s">
-        <v>645</v>
-      </c>
-      <c r="AC3" s="19" t="s">
-        <v>634</v>
-      </c>
-      <c r="AD3" s="19" t="s">
-        <v>635</v>
-      </c>
-      <c r="AE3" s="19" t="s">
-        <v>648</v>
-      </c>
-      <c r="AF3" s="19" t="s">
-        <v>647</v>
-      </c>
-      <c r="AG3" s="19" t="s">
-        <v>649</v>
-      </c>
-      <c r="AH3" s="19" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">

--- a/datamares/OLR/OLR_datamares_promonitor.xlsx
+++ b/datamares/OLR/OLR_datamares_promonitor.xlsx
@@ -1946,9 +1946,6 @@
     <t>Records of fish and invertebrates during underwater surveys in the Gulf of California</t>
   </si>
   <si>
-    <t>The data described here have been embargoed until 01/01/2017. Inquiries should be directed to Victoria Jimenez (victoria.jimenez@gocmarineprogram.org).</t>
-  </si>
-  <si>
     <t>Visual census of fish and invertebrates</t>
   </si>
   <si>
@@ -2016,6 +2013,9 @@
   </si>
   <si>
     <t>Mascareñas Osorio, Ismael; Aburto-Oropeza, Octavio; Sanchez-Ortiz, Carlos (2017): Health Index of the reefs in the Gulf of California. In dataMares Project: Promonitor. UC San Diego Library Digital Collections.</t>
+  </si>
+  <si>
+    <t>The data described here have been embargoed until 2017-01-01. Inquiries should be directed to Victoria Jimenez (victoria.jimenez@gocmarineprogram.org).</t>
   </si>
 </sst>
 </file>
@@ -3316,10 +3316,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="AH2" sqref="AH2"/>
+      <selection pane="bottomLeft" activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3476,7 +3476,7 @@
         <v>625</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>623</v>
@@ -3485,7 +3485,7 @@
         <v>627</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>628</v>
@@ -3497,29 +3497,29 @@
         <v>630</v>
       </c>
       <c r="P2" s="22" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="Q2" s="26"/>
       <c r="R2" s="26" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="S2" s="22" t="s">
         <v>626</v>
       </c>
       <c r="T2" s="23" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="U2" s="22" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="V2" s="22" t="s">
         <v>632</v>
       </c>
       <c r="W2" s="17" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="X2" s="17" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="Y2" s="19" t="s">
         <v>633</v>
@@ -3530,7 +3530,7 @@
     </row>
     <row r="3" spans="1:34" s="18" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>485</v>
@@ -3548,10 +3548,10 @@
         <v>635</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="K3" s="17" t="s">
         <v>622</v>
@@ -3572,38 +3572,38 @@
         <v>624</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="R3" s="26"/>
       <c r="S3" s="22" t="s">
         <v>639</v>
       </c>
       <c r="T3" s="23" t="s">
+        <v>663</v>
+      </c>
+      <c r="U3" s="22" t="s">
+        <v>651</v>
+      </c>
+      <c r="V3" s="22" t="s">
         <v>640</v>
       </c>
-      <c r="U3" s="22" t="s">
-        <v>652</v>
-      </c>
-      <c r="V3" s="22" t="s">
+      <c r="W3" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="X3" s="17" t="s">
+        <v>656</v>
+      </c>
+      <c r="Y3" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="Z3" s="19" t="s">
         <v>641</v>
       </c>
-      <c r="W3" s="17" t="s">
-        <v>659</v>
-      </c>
-      <c r="X3" s="17" t="s">
-        <v>657</v>
-      </c>
-      <c r="Y3" s="18" t="s">
+      <c r="AA3" s="19" t="s">
+        <v>644</v>
+      </c>
+      <c r="AB3" s="19" t="s">
         <v>643</v>
-      </c>
-      <c r="Z3" s="19" t="s">
-        <v>642</v>
-      </c>
-      <c r="AA3" s="19" t="s">
-        <v>645</v>
-      </c>
-      <c r="AB3" s="19" t="s">
-        <v>644</v>
       </c>
       <c r="AC3" s="19" t="s">
         <v>633</v>
@@ -3612,16 +3612,16 @@
         <v>634</v>
       </c>
       <c r="AE3" s="19" t="s">
+        <v>646</v>
+      </c>
+      <c r="AF3" s="19" t="s">
+        <v>645</v>
+      </c>
+      <c r="AG3" s="19" t="s">
         <v>647</v>
       </c>
-      <c r="AF3" s="19" t="s">
-        <v>646</v>
-      </c>
-      <c r="AG3" s="19" t="s">
-        <v>648</v>
-      </c>
       <c r="AH3" s="19" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
